--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il12rb1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2.494265666666667</v>
+      </c>
+      <c r="H2">
+        <v>7.482797</v>
+      </c>
+      <c r="I2">
+        <v>0.2800011001277121</v>
+      </c>
+      <c r="J2">
+        <v>0.2870662206424818</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.137812333333333</v>
-      </c>
-      <c r="H2">
-        <v>3.413437</v>
-      </c>
-      <c r="I2">
-        <v>0.1671730353904037</v>
-      </c>
-      <c r="J2">
-        <v>0.1671730353904037</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.087409</v>
+        <v>0.2317656666666667</v>
       </c>
       <c r="N2">
-        <v>0.262227</v>
+        <v>0.6952970000000001</v>
       </c>
       <c r="O2">
-        <v>0.02334891860093474</v>
+        <v>0.04497992035421015</v>
       </c>
       <c r="P2">
-        <v>0.02419892681150506</v>
+        <v>0.04579239628237638</v>
       </c>
       <c r="Q2">
-        <v>0.09945503824433334</v>
+        <v>0.5780851450787778</v>
       </c>
       <c r="R2">
-        <v>0.8950953441989999</v>
+        <v>5.202766305709</v>
       </c>
       <c r="S2">
-        <v>0.003903309595601718</v>
+        <v>0.01259442718283571</v>
       </c>
       <c r="T2">
-        <v>0.004045408048269523</v>
+        <v>0.01314545013494462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.137812333333333</v>
+        <v>2.494265666666667</v>
       </c>
       <c r="H3">
-        <v>3.413437</v>
+        <v>7.482797</v>
       </c>
       <c r="I3">
-        <v>0.1671730353904037</v>
+        <v>0.2800011001277121</v>
       </c>
       <c r="J3">
-        <v>0.1671730353904037</v>
+        <v>0.2870662206424818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.96751</v>
       </c>
       <c r="O3">
-        <v>0.2642296538398405</v>
+        <v>0.1919731617572378</v>
       </c>
       <c r="P3">
-        <v>0.273848830602529</v>
+        <v>0.1954407884571841</v>
       </c>
       <c r="Q3">
-        <v>1.125489825763333</v>
+        <v>2.467252769496667</v>
       </c>
       <c r="R3">
-        <v>10.12940843187</v>
+        <v>22.20527492547</v>
       </c>
       <c r="S3">
-        <v>0.04417207327256176</v>
+        <v>0.05375269648702181</v>
       </c>
       <c r="T3">
-        <v>0.04578014024993723</v>
+        <v>0.05610444850179062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.137812333333333</v>
+        <v>2.494265666666667</v>
       </c>
       <c r="H4">
-        <v>3.413437</v>
+        <v>7.482797</v>
       </c>
       <c r="I4">
-        <v>0.1671730353904037</v>
+        <v>0.2800011001277121</v>
       </c>
       <c r="J4">
-        <v>0.1671730353904037</v>
+        <v>0.2870662206424818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.912991</v>
+        <v>2.312753666666667</v>
       </c>
       <c r="N4">
-        <v>5.738973000000001</v>
+        <v>6.938261000000001</v>
       </c>
       <c r="O4">
-        <v>0.5110031134473653</v>
+        <v>0.4488476538468058</v>
       </c>
       <c r="P4">
-        <v>0.52960598107824</v>
+        <v>0.4569552252095968</v>
       </c>
       <c r="Q4">
-        <v>2.176624753355667</v>
+        <v>5.768622066224112</v>
       </c>
       <c r="R4">
-        <v>19.589622780201</v>
+        <v>51.917598596017</v>
       </c>
       <c r="S4">
-        <v>0.08542594156894284</v>
+        <v>0.1256778368668481</v>
       </c>
       <c r="T4">
-        <v>0.08853583941776205</v>
+        <v>0.1311764095037531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.137812333333333</v>
+        <v>2.494265666666667</v>
       </c>
       <c r="H5">
-        <v>3.413437</v>
+        <v>7.482797</v>
       </c>
       <c r="I5">
-        <v>0.1671730353904037</v>
+        <v>0.2800011001277121</v>
       </c>
       <c r="J5">
-        <v>0.1671730353904037</v>
+        <v>0.2870662206424818</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3944915</v>
+        <v>0.274264</v>
       </c>
       <c r="N5">
-        <v>0.788983</v>
+        <v>0.548528</v>
       </c>
       <c r="O5">
-        <v>0.1053775918070296</v>
+        <v>0.05322778413840601</v>
       </c>
       <c r="P5">
-        <v>0.07280921443070965</v>
+        <v>0.03612616126343038</v>
       </c>
       <c r="Q5">
-        <v>0.4488572940951667</v>
+        <v>0.6840872788026667</v>
       </c>
       <c r="R5">
-        <v>2.693143764571</v>
+        <v>4.104523672816</v>
       </c>
       <c r="S5">
-        <v>0.01761629188451206</v>
+        <v>0.01490383811611407</v>
       </c>
       <c r="T5">
-        <v>0.01217173738077251</v>
+        <v>0.01037060058021379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.137812333333333</v>
+        <v>2.494265666666667</v>
       </c>
       <c r="H6">
-        <v>3.413437</v>
+        <v>7.482797</v>
       </c>
       <c r="I6">
-        <v>0.1671730353904037</v>
+        <v>0.2800011001277121</v>
       </c>
       <c r="J6">
-        <v>0.1671730353904037</v>
+        <v>0.2870662206424818</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.359538</v>
+        <v>1.344694</v>
       </c>
       <c r="N6">
-        <v>1.078614</v>
+        <v>4.034082</v>
       </c>
       <c r="O6">
-        <v>0.09604072230482986</v>
+        <v>0.2609714799033402</v>
       </c>
       <c r="P6">
-        <v>0.09953704707701616</v>
+        <v>0.2656854287874124</v>
       </c>
       <c r="Q6">
-        <v>0.409086770702</v>
+        <v>3.354024076372666</v>
       </c>
       <c r="R6">
-        <v>3.681780936318</v>
+        <v>30.186216687354</v>
       </c>
       <c r="S6">
-        <v>0.01605541906878525</v>
+        <v>0.07307230147489238</v>
       </c>
       <c r="T6">
-        <v>0.0166399102936623</v>
+        <v>0.07626931192177971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>6.956326</v>
       </c>
       <c r="I7">
-        <v>0.3406859808999507</v>
+        <v>0.2603009186066396</v>
       </c>
       <c r="J7">
-        <v>0.3406859808999507</v>
+        <v>0.266868954800863</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.087409</v>
+        <v>0.2317656666666667</v>
       </c>
       <c r="N7">
-        <v>0.262227</v>
+        <v>0.6952970000000001</v>
       </c>
       <c r="O7">
-        <v>0.02334891860093474</v>
+        <v>0.04497992035421015</v>
       </c>
       <c r="P7">
-        <v>0.02419892681150506</v>
+        <v>0.04579239628237638</v>
       </c>
       <c r="Q7">
-        <v>0.2026818331113333</v>
+        <v>0.5374125109802222</v>
       </c>
       <c r="R7">
-        <v>1.824136498002</v>
+        <v>4.836712598822</v>
       </c>
       <c r="S7">
-        <v>0.007954649236512557</v>
+        <v>0.01170831458705439</v>
       </c>
       <c r="T7">
-        <v>0.008244235117503718</v>
+        <v>0.01222056893370471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>6.956326</v>
       </c>
       <c r="I8">
-        <v>0.3406859808999507</v>
+        <v>0.2603009186066396</v>
       </c>
       <c r="J8">
-        <v>0.3406859808999507</v>
+        <v>0.266868954800863</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.96751</v>
       </c>
       <c r="O8">
-        <v>0.2642296538398405</v>
+        <v>0.1919731617572378</v>
       </c>
       <c r="P8">
-        <v>0.273848830602529</v>
+        <v>0.1954407884571841</v>
       </c>
       <c r="Q8">
         <v>2.293662996473333</v>
@@ -948,10 +948,10 @@
         <v>20.64296696826</v>
       </c>
       <c r="S8">
-        <v>0.09001933880128049</v>
+        <v>0.04997079035323002</v>
       </c>
       <c r="T8">
-        <v>0.09329645747212703</v>
+        <v>0.05215707894102528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>6.956326</v>
       </c>
       <c r="I9">
-        <v>0.3406859808999507</v>
+        <v>0.2603009186066396</v>
       </c>
       <c r="J9">
-        <v>0.3406859808999507</v>
+        <v>0.266868954800863</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.912991</v>
+        <v>2.312753666666667</v>
       </c>
       <c r="N9">
-        <v>5.738973000000001</v>
+        <v>6.938261000000001</v>
       </c>
       <c r="O9">
-        <v>0.5110031134473653</v>
+        <v>0.4488476538468058</v>
       </c>
       <c r="P9">
-        <v>0.52960598107824</v>
+        <v>0.4569552252095968</v>
       </c>
       <c r="Q9">
-        <v>4.435796343688667</v>
+        <v>5.36275615434289</v>
       </c>
       <c r="R9">
-        <v>39.92216709319801</v>
+        <v>48.264805389086</v>
       </c>
       <c r="S9">
-        <v>0.1740915969477444</v>
+        <v>0.1168354566107586</v>
       </c>
       <c r="T9">
-        <v>0.1804293331541209</v>
+        <v>0.1219471633424781</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>6.956326</v>
       </c>
       <c r="I10">
-        <v>0.3406859808999507</v>
+        <v>0.2603009186066396</v>
       </c>
       <c r="J10">
-        <v>0.3406859808999507</v>
+        <v>0.266868954800863</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3944915</v>
+        <v>0.274264</v>
       </c>
       <c r="N10">
-        <v>0.788983</v>
+        <v>0.548528</v>
       </c>
       <c r="O10">
-        <v>0.1053775918070296</v>
+        <v>0.05322778413840601</v>
       </c>
       <c r="P10">
-        <v>0.07280921443070965</v>
+        <v>0.03612616126343038</v>
       </c>
       <c r="Q10">
-        <v>0.9147371594096667</v>
+        <v>0.6359565980213334</v>
       </c>
       <c r="R10">
-        <v>5.488422956458</v>
+        <v>3.815739588128</v>
       </c>
       <c r="S10">
-        <v>0.03590066822965247</v>
+        <v>0.01385524110662301</v>
       </c>
       <c r="T10">
-        <v>0.02480507863688116</v>
+        <v>0.009640950897339089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>6.956326</v>
       </c>
       <c r="I11">
-        <v>0.3406859808999507</v>
+        <v>0.2603009186066396</v>
       </c>
       <c r="J11">
-        <v>0.3406859808999507</v>
+        <v>0.266868954800863</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.359538</v>
+        <v>1.344694</v>
       </c>
       <c r="N11">
-        <v>1.078614</v>
+        <v>4.034082</v>
       </c>
       <c r="O11">
-        <v>0.09604072230482986</v>
+        <v>0.2609714799033402</v>
       </c>
       <c r="P11">
-        <v>0.09953704707701616</v>
+        <v>0.2656854287874124</v>
       </c>
       <c r="Q11">
-        <v>0.833687845796</v>
+        <v>3.118043278081333</v>
       </c>
       <c r="R11">
-        <v>7.503190612164</v>
+        <v>28.062389502732</v>
       </c>
       <c r="S11">
-        <v>0.03271972768476074</v>
+        <v>0.06793111594897365</v>
       </c>
       <c r="T11">
-        <v>0.03391087651931782</v>
+        <v>0.07090319268631586</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.433754</v>
+        <v>2.539240333333333</v>
       </c>
       <c r="H12">
-        <v>4.301261999999999</v>
+        <v>7.617721</v>
       </c>
       <c r="I12">
-        <v>0.2106542539233618</v>
+        <v>0.2850498631014546</v>
       </c>
       <c r="J12">
-        <v>0.2106542539233618</v>
+        <v>0.2922423763973374</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.087409</v>
+        <v>0.2317656666666667</v>
       </c>
       <c r="N12">
-        <v>0.262227</v>
+        <v>0.6952970000000001</v>
       </c>
       <c r="O12">
-        <v>0.02334891860093474</v>
+        <v>0.04497992035421015</v>
       </c>
       <c r="P12">
-        <v>0.02419892681150506</v>
+        <v>0.04579239628237638</v>
       </c>
       <c r="Q12">
-        <v>0.125323003386</v>
+        <v>0.5885087286818889</v>
       </c>
       <c r="R12">
-        <v>1.127907030474</v>
+        <v>5.296578558137</v>
       </c>
       <c r="S12">
-        <v>0.004918549027797213</v>
+        <v>0.01282152013928193</v>
       </c>
       <c r="T12">
-        <v>0.005097606873223634</v>
+        <v>0.01338247871049027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.433754</v>
+        <v>2.539240333333333</v>
       </c>
       <c r="H13">
-        <v>4.301261999999999</v>
+        <v>7.617721</v>
       </c>
       <c r="I13">
-        <v>0.2106542539233618</v>
+        <v>0.2850498631014546</v>
       </c>
       <c r="J13">
-        <v>0.2106542539233618</v>
+        <v>0.2922423763973374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.96751</v>
       </c>
       <c r="O13">
-        <v>0.2642296538398405</v>
+        <v>0.1919731617572378</v>
       </c>
       <c r="P13">
-        <v>0.273848830602529</v>
+        <v>0.1954407884571841</v>
       </c>
       <c r="Q13">
-        <v>1.41822644418</v>
+        <v>2.511740360523333</v>
       </c>
       <c r="R13">
-        <v>12.76403799762</v>
+        <v>22.60566324471</v>
       </c>
       <c r="S13">
-        <v>0.05566110059405974</v>
+        <v>0.05472192347805403</v>
       </c>
       <c r="T13">
-        <v>0.05768742109836084</v>
+        <v>0.05711608046369678</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.433754</v>
+        <v>2.539240333333333</v>
       </c>
       <c r="H14">
-        <v>4.301261999999999</v>
+        <v>7.617721</v>
       </c>
       <c r="I14">
-        <v>0.2106542539233618</v>
+        <v>0.2850498631014546</v>
       </c>
       <c r="J14">
-        <v>0.2106542539233618</v>
+        <v>0.2922423763973374</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.912991</v>
+        <v>2.312753666666667</v>
       </c>
       <c r="N14">
-        <v>5.738973000000001</v>
+        <v>6.938261000000001</v>
       </c>
       <c r="O14">
-        <v>0.5110031134473653</v>
+        <v>0.4488476538468058</v>
       </c>
       <c r="P14">
-        <v>0.52960598107824</v>
+        <v>0.4569552252095968</v>
       </c>
       <c r="Q14">
-        <v>2.742758498214</v>
+        <v>5.872637391464557</v>
       </c>
       <c r="R14">
-        <v>24.684826483926</v>
+        <v>52.853736523181</v>
       </c>
       <c r="S14">
-        <v>0.1076449796157697</v>
+        <v>0.1279439622824411</v>
       </c>
       <c r="T14">
-        <v>0.1115637528173867</v>
+        <v>0.1335416809224331</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.433754</v>
+        <v>2.539240333333333</v>
       </c>
       <c r="H15">
-        <v>4.301261999999999</v>
+        <v>7.617721</v>
       </c>
       <c r="I15">
-        <v>0.2106542539233618</v>
+        <v>0.2850498631014546</v>
       </c>
       <c r="J15">
-        <v>0.2106542539233618</v>
+        <v>0.2922423763973374</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3944915</v>
+        <v>0.274264</v>
       </c>
       <c r="N15">
-        <v>0.788983</v>
+        <v>0.548528</v>
       </c>
       <c r="O15">
-        <v>0.1053775918070296</v>
+        <v>0.05322778413840601</v>
       </c>
       <c r="P15">
-        <v>0.07280921443070965</v>
+        <v>0.03612616126343038</v>
       </c>
       <c r="Q15">
-        <v>0.5656037660909999</v>
+        <v>0.6964222107813334</v>
       </c>
       <c r="R15">
-        <v>3.393622596545999</v>
+        <v>4.178533264688</v>
       </c>
       <c r="S15">
-        <v>0.02219823798235037</v>
+        <v>0.01517257258184641</v>
       </c>
       <c r="T15">
-        <v>0.01533757074464721</v>
+        <v>0.01055759521773833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.433754</v>
+        <v>2.539240333333333</v>
       </c>
       <c r="H16">
-        <v>4.301261999999999</v>
+        <v>7.617721</v>
       </c>
       <c r="I16">
-        <v>0.2106542539233618</v>
+        <v>0.2850498631014546</v>
       </c>
       <c r="J16">
-        <v>0.2106542539233618</v>
+        <v>0.2922423763973374</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.359538</v>
+        <v>1.344694</v>
       </c>
       <c r="N16">
-        <v>1.078614</v>
+        <v>4.034082</v>
       </c>
       <c r="O16">
-        <v>0.09604072230482986</v>
+        <v>0.2609714799033402</v>
       </c>
       <c r="P16">
-        <v>0.09953704707701616</v>
+        <v>0.2656854287874124</v>
       </c>
       <c r="Q16">
-        <v>0.5154890456519998</v>
+        <v>3.414501240791333</v>
       </c>
       <c r="R16">
-        <v>4.639401410868</v>
+        <v>30.730511167122</v>
       </c>
       <c r="S16">
-        <v>0.02023138670338471</v>
+        <v>0.07438988461983115</v>
       </c>
       <c r="T16">
-        <v>0.02096790238974338</v>
+        <v>0.07764454108297894</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.915853666666666</v>
+        <v>0.657721</v>
       </c>
       <c r="H17">
-        <v>5.747560999999999</v>
+        <v>1.315442</v>
       </c>
       <c r="I17">
-        <v>0.2814867297862839</v>
+        <v>0.07383439785033548</v>
       </c>
       <c r="J17">
-        <v>0.2814867297862839</v>
+        <v>0.05046494825589784</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.087409</v>
+        <v>0.2317656666666667</v>
       </c>
       <c r="N17">
-        <v>0.262227</v>
+        <v>0.6952970000000001</v>
       </c>
       <c r="O17">
-        <v>0.02334891860093474</v>
+        <v>0.04497992035421015</v>
       </c>
       <c r="P17">
-        <v>0.02419892681150506</v>
+        <v>0.04579239628237638</v>
       </c>
       <c r="Q17">
-        <v>0.1674628531496666</v>
+        <v>0.1524371460456667</v>
       </c>
       <c r="R17">
-        <v>1.507165678347</v>
+        <v>0.9146228762740001</v>
       </c>
       <c r="S17">
-        <v>0.006572410741023257</v>
+        <v>0.003321065334709155</v>
       </c>
       <c r="T17">
-        <v>0.006811676772508186</v>
+        <v>0.002310910908903693</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.915853666666666</v>
+        <v>0.657721</v>
       </c>
       <c r="H18">
-        <v>5.747560999999999</v>
+        <v>1.315442</v>
       </c>
       <c r="I18">
-        <v>0.2814867297862839</v>
+        <v>0.07383439785033548</v>
       </c>
       <c r="J18">
-        <v>0.2814867297862839</v>
+        <v>0.05046494825589784</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.96751</v>
       </c>
       <c r="O18">
-        <v>0.2642296538398405</v>
+        <v>0.1919731617572378</v>
       </c>
       <c r="P18">
-        <v>0.273848830602529</v>
+        <v>0.1954407884571841</v>
       </c>
       <c r="Q18">
-        <v>1.895104971456666</v>
+        <v>0.65059788157</v>
       </c>
       <c r="R18">
-        <v>17.05594474311</v>
+        <v>3.90358728942</v>
       </c>
       <c r="S18">
-        <v>0.07437714117193851</v>
+        <v>0.0141742228017707</v>
       </c>
       <c r="T18">
-        <v>0.07708481178210393</v>
+        <v>0.00986290927658367</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.915853666666666</v>
+        <v>0.657721</v>
       </c>
       <c r="H19">
-        <v>5.747560999999999</v>
+        <v>1.315442</v>
       </c>
       <c r="I19">
-        <v>0.2814867297862839</v>
+        <v>0.07383439785033548</v>
       </c>
       <c r="J19">
-        <v>0.2814867297862839</v>
+        <v>0.05046494825589784</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.912991</v>
+        <v>2.312753666666667</v>
       </c>
       <c r="N19">
-        <v>5.738973000000001</v>
+        <v>6.938261000000001</v>
       </c>
       <c r="O19">
-        <v>0.5110031134473653</v>
+        <v>0.4488476538468058</v>
       </c>
       <c r="P19">
-        <v>0.52960598107824</v>
+        <v>0.4569552252095968</v>
       </c>
       <c r="Q19">
-        <v>3.665010821650333</v>
+        <v>1.521146654393667</v>
       </c>
       <c r="R19">
-        <v>32.985097394853</v>
+        <v>9.126879926362001</v>
       </c>
       <c r="S19">
-        <v>0.1438405953149083</v>
+        <v>0.03314039624831472</v>
       </c>
       <c r="T19">
-        <v>0.1490770556889703</v>
+        <v>0.02306022179546445</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.915853666666666</v>
+        <v>0.657721</v>
       </c>
       <c r="H20">
-        <v>5.747560999999999</v>
+        <v>1.315442</v>
       </c>
       <c r="I20">
-        <v>0.2814867297862839</v>
+        <v>0.07383439785033548</v>
       </c>
       <c r="J20">
-        <v>0.2814867297862839</v>
+        <v>0.05046494825589784</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3944915</v>
+        <v>0.274264</v>
       </c>
       <c r="N20">
-        <v>0.788983</v>
+        <v>0.548528</v>
       </c>
       <c r="O20">
-        <v>0.1053775918070296</v>
+        <v>0.05322778413840601</v>
       </c>
       <c r="P20">
-        <v>0.07280921443070965</v>
+        <v>0.03612616126343038</v>
       </c>
       <c r="Q20">
-        <v>0.7557879867438332</v>
+        <v>0.180389192344</v>
       </c>
       <c r="R20">
-        <v>4.534727920462999</v>
+        <v>0.721556769376</v>
       </c>
       <c r="S20">
-        <v>0.02966239371051466</v>
+        <v>0.003930041390766846</v>
       </c>
       <c r="T20">
-        <v>0.02049482766840877</v>
+        <v>0.001823104858843235</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.657721</v>
+      </c>
+      <c r="H21">
+        <v>1.315442</v>
+      </c>
+      <c r="I21">
+        <v>0.07383439785033548</v>
+      </c>
+      <c r="J21">
+        <v>0.05046494825589784</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.344694</v>
+      </c>
+      <c r="N21">
+        <v>4.034082</v>
+      </c>
+      <c r="O21">
+        <v>0.2609714799033402</v>
+      </c>
+      <c r="P21">
+        <v>0.2656854287874124</v>
+      </c>
+      <c r="Q21">
+        <v>0.8844334823739999</v>
+      </c>
+      <c r="R21">
+        <v>5.306600894243999</v>
+      </c>
+      <c r="S21">
+        <v>0.01926867207477405</v>
+      </c>
+      <c r="T21">
+        <v>0.0134078014161028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.8980543333333332</v>
+      </c>
+      <c r="H22">
+        <v>2.694163</v>
+      </c>
+      <c r="I22">
+        <v>0.1008137203138582</v>
+      </c>
+      <c r="J22">
+        <v>0.1033574999034199</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2317656666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.6952970000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.04497992035421015</v>
+      </c>
+      <c r="P22">
+        <v>0.04579239628237638</v>
+      </c>
+      <c r="Q22">
+        <v>0.2081381612678889</v>
+      </c>
+      <c r="R22">
+        <v>1.873243451411</v>
+      </c>
+      <c r="S22">
+        <v>0.004534593110328959</v>
+      </c>
+      <c r="T22">
+        <v>0.004732987594333082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.8980543333333332</v>
+      </c>
+      <c r="H23">
+        <v>2.694163</v>
+      </c>
+      <c r="I23">
+        <v>0.1008137203138582</v>
+      </c>
+      <c r="J23">
+        <v>0.1033574999034199</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.98917</v>
+      </c>
+      <c r="N23">
+        <v>2.96751</v>
+      </c>
+      <c r="O23">
+        <v>0.1919731617572378</v>
+      </c>
+      <c r="P23">
+        <v>0.1954407884571841</v>
+      </c>
+      <c r="Q23">
+        <v>0.8883284049033332</v>
+      </c>
+      <c r="R23">
+        <v>7.994955644129998</v>
+      </c>
+      <c r="S23">
+        <v>0.01935352863716123</v>
+      </c>
+      <c r="T23">
+        <v>0.02020027127408771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.8980543333333332</v>
+      </c>
+      <c r="H24">
+        <v>2.694163</v>
+      </c>
+      <c r="I24">
+        <v>0.1008137203138582</v>
+      </c>
+      <c r="J24">
+        <v>0.1033574999034199</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.312753666666667</v>
+      </c>
+      <c r="N24">
+        <v>6.938261000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.4488476538468058</v>
+      </c>
+      <c r="P24">
+        <v>0.4569552252095968</v>
+      </c>
+      <c r="Q24">
+        <v>2.076978452282555</v>
+      </c>
+      <c r="R24">
+        <v>18.692806070543</v>
+      </c>
+      <c r="S24">
+        <v>0.04525000183844331</v>
+      </c>
+      <c r="T24">
+        <v>0.04722974964546812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.915853666666666</v>
-      </c>
-      <c r="H21">
-        <v>5.747560999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.2814867297862839</v>
-      </c>
-      <c r="J21">
-        <v>0.2814867297862839</v>
-      </c>
-      <c r="K21">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="L21">
+      <c r="F25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M21">
-        <v>0.359538</v>
-      </c>
-      <c r="N21">
-        <v>1.078614</v>
-      </c>
-      <c r="O21">
-        <v>0.09604072230482986</v>
-      </c>
-      <c r="P21">
-        <v>0.09953704707701616</v>
-      </c>
-      <c r="Q21">
-        <v>0.6888221956059998</v>
-      </c>
-      <c r="R21">
-        <v>6.199399760453999</v>
-      </c>
-      <c r="S21">
-        <v>0.02703418884789918</v>
-      </c>
-      <c r="T21">
-        <v>0.02801835787429267</v>
+      <c r="G25">
+        <v>0.8980543333333332</v>
+      </c>
+      <c r="H25">
+        <v>2.694163</v>
+      </c>
+      <c r="I25">
+        <v>0.1008137203138582</v>
+      </c>
+      <c r="J25">
+        <v>0.1033574999034199</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.274264</v>
+      </c>
+      <c r="N25">
+        <v>0.548528</v>
+      </c>
+      <c r="O25">
+        <v>0.05322778413840601</v>
+      </c>
+      <c r="P25">
+        <v>0.03612616126343038</v>
+      </c>
+      <c r="Q25">
+        <v>0.2463039736773333</v>
+      </c>
+      <c r="R25">
+        <v>1.477823842064</v>
+      </c>
+      <c r="S25">
+        <v>0.00536609094305568</v>
+      </c>
+      <c r="T25">
+        <v>0.003733909709295937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.8980543333333332</v>
+      </c>
+      <c r="H26">
+        <v>2.694163</v>
+      </c>
+      <c r="I26">
+        <v>0.1008137203138582</v>
+      </c>
+      <c r="J26">
+        <v>0.1033574999034199</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.344694</v>
+      </c>
+      <c r="N26">
+        <v>4.034082</v>
+      </c>
+      <c r="O26">
+        <v>0.2609714799033402</v>
+      </c>
+      <c r="P26">
+        <v>0.2656854287874124</v>
+      </c>
+      <c r="Q26">
+        <v>1.207608273707333</v>
+      </c>
+      <c r="R26">
+        <v>10.868474463366</v>
+      </c>
+      <c r="S26">
+        <v>0.02630950578486901</v>
+      </c>
+      <c r="T26">
+        <v>0.02746058168023505</v>
       </c>
     </row>
   </sheetData>
